--- a/qa/01.测试用例/Demo/Ver0.4副本设计/第七章/7-7副本测试用例.xlsx
+++ b/qa/01.测试用例/Demo/Ver0.4副本设计/第七章/7-7副本测试用例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11750" yWindow="1760" windowWidth="3620" windowHeight="6000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="11750" yWindow="1760" windowWidth="3620" windowHeight="6000" tabRatio="500" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="5" r:id="rId1"/>
@@ -22,12 +22,12 @@
     <sheet name="配置检查" sheetId="6" r:id="rId8"/>
     <sheet name="通用技能说明" sheetId="16" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="1003">
   <si>
     <t>caseID</t>
   </si>
@@ -3653,6 +3653,22 @@
   </si>
   <si>
     <t>集火攻击身体打击点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -9711,8 +9727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -10818,8 +10834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:XFD71"/>
+    <sheetView topLeftCell="F82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -11576,7 +11592,12 @@
       <c r="G64" s="71" t="s">
         <v>902</v>
       </c>
-      <c r="H64" s="13"/>
+      <c r="H64" s="13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I64" s="10">
+        <v>466</v>
+      </c>
     </row>
     <row r="65" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
@@ -11995,7 +12016,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D97" s="6">
         <v>2</v>
       </c>
@@ -12006,7 +12027,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D98" s="6">
         <v>3</v>
       </c>
@@ -12016,8 +12037,14 @@
       <c r="G98" s="79">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H98" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I98" s="6">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D99" s="6">
         <v>4</v>
       </c>
@@ -12028,7 +12055,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="6" t="s">
         <v>15</v>
       </c>
@@ -12045,7 +12072,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D102" s="6">
         <v>2</v>
       </c>
@@ -12056,7 +12083,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D103" s="6">
         <v>3</v>
       </c>
@@ -12067,7 +12094,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="6" t="s">
         <v>915</v>
       </c>
@@ -12085,7 +12112,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E106" s="10"/>
       <c r="F106" s="10" t="s">
         <v>918</v>
@@ -12094,7 +12121,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E107" s="11"/>
       <c r="F107" s="10" t="s">
         <v>919</v>
@@ -12103,7 +12130,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E108" s="11"/>
       <c r="F108" s="11" t="s">
         <v>921</v>
@@ -12112,14 +12139,14 @@
         <v>66</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E109" s="11"/>
       <c r="F109" s="10" t="s">
         <v>922</v>
       </c>
       <c r="G109" s="73"/>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E110" s="11"/>
       <c r="F110" s="10" t="s">
         <v>923</v>
@@ -12128,12 +12155,12 @@
         <v>924</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E111" s="10"/>
       <c r="F111" s="10"/>
       <c r="G111" s="11"/>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E112" s="11"/>
       <c r="F112" s="10"/>
       <c r="G112" s="11"/>
@@ -12429,8 +12456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:XFD106"/>
+    <sheetView topLeftCell="F81" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -12791,7 +12818,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="74"/>
       <c r="C33" s="75"/>
       <c r="D33" s="75">
@@ -12807,7 +12834,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="74"/>
       <c r="C34" s="75"/>
       <c r="D34" s="75"/>
@@ -12819,7 +12846,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="74"/>
       <c r="C35" s="75"/>
       <c r="D35" s="75">
@@ -12835,7 +12862,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="74"/>
       <c r="C36" s="75"/>
       <c r="D36" s="75"/>
@@ -12846,8 +12873,14 @@
       <c r="G36" s="71" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="8" t="s">
+        <v>999</v>
+      </c>
+      <c r="I36" s="8">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="74"/>
       <c r="C37" s="75"/>
       <c r="D37" s="75">
@@ -12863,7 +12896,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="74"/>
       <c r="C38" s="75"/>
       <c r="D38" s="75"/>
@@ -12875,7 +12908,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="74"/>
       <c r="C39" s="75"/>
       <c r="D39" s="75"/>
@@ -12887,7 +12920,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="74"/>
       <c r="C40" s="75"/>
       <c r="D40" s="75">
@@ -12903,7 +12936,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="74"/>
       <c r="C41" s="75"/>
       <c r="D41" s="75"/>
@@ -12915,7 +12948,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="36"/>
       <c r="B42" s="74"/>
       <c r="C42" s="75"/>
@@ -12930,7 +12963,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="36"/>
       <c r="B43" s="74"/>
       <c r="C43" s="75"/>
@@ -12939,7 +12972,7 @@
       <c r="F43" s="71"/>
       <c r="G43" s="71"/>
     </row>
-    <row r="44" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="36"/>
       <c r="B44" s="74"/>
       <c r="C44" s="75"/>
@@ -12954,7 +12987,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="36"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -12962,7 +12995,7 @@
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
     </row>
-    <row r="46" spans="1:7" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="58" t="s">
         <v>349</v>
       </c>
@@ -12972,7 +13005,7 @@
       <c r="F46" s="48"/>
       <c r="G46" s="48"/>
     </row>
-    <row r="47" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" s="36"/>
       <c r="B47" s="36" t="s">
         <v>256</v>
@@ -12993,7 +13026,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="37"/>
@@ -13182,7 +13215,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="65" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6" t="s">
         <v>33</v>
@@ -13202,7 +13235,7 @@
       </c>
       <c r="H65" s="13"/>
     </row>
-    <row r="66" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="D66" s="8">
@@ -13217,7 +13250,7 @@
       </c>
       <c r="H66" s="13"/>
     </row>
-    <row r="67" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="D67" s="8"/>
@@ -13226,7 +13259,7 @@
       <c r="G67" s="23"/>
       <c r="H67" s="13"/>
     </row>
-    <row r="68" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6" t="s">
         <v>15</v>
@@ -13246,7 +13279,7 @@
       </c>
       <c r="H68" s="13"/>
     </row>
-    <row r="69" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="D69" s="8"/>
@@ -13255,7 +13288,7 @@
       <c r="G69" s="23"/>
       <c r="H69" s="13"/>
     </row>
-    <row r="70" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6" t="s">
         <v>33</v>
@@ -13277,7 +13310,7 @@
       </c>
       <c r="H70" s="13"/>
     </row>
-    <row r="71" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="D71" s="8">
@@ -13290,9 +13323,14 @@
       <c r="G71" s="11" t="s">
         <v>940</v>
       </c>
-      <c r="H71" s="13"/>
-    </row>
-    <row r="72" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H71" s="13" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I71" s="10">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="D72" s="8">
@@ -13307,7 +13345,7 @@
       </c>
       <c r="H72" s="13"/>
     </row>
-    <row r="73" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="D73" s="8">
@@ -13322,7 +13360,7 @@
       </c>
       <c r="H73" s="13"/>
     </row>
-    <row r="74" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="D74" s="8"/>
@@ -13331,7 +13369,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="13"/>
     </row>
-    <row r="75" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="s">
         <v>33</v>
@@ -13350,12 +13388,12 @@
       </c>
       <c r="H75" s="13"/>
     </row>
-    <row r="76" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="D76" s="8"/>
     </row>
-    <row r="77" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6" t="s">
         <v>256</v>
@@ -13372,7 +13410,7 @@
       <c r="F77" s="11"/>
       <c r="G77" s="73"/>
     </row>
-    <row r="78" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="D78" s="8">
@@ -13384,7 +13422,7 @@
       <c r="F78" s="11"/>
       <c r="G78" s="73"/>
     </row>
-    <row r="79" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="D79" s="8">
@@ -13398,7 +13436,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="D80" s="8"/>
@@ -13988,8 +14026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J138"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
